--- a/data/trans_orig/P04B3_3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_3_2023-Provincia-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>2279</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5942</v>
+        <v>5824</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007210865934358989</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001685729883644941</v>
+        <v>0.001672508960379053</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01880027957757095</v>
+        <v>0.01842761824134543</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -775,19 +775,19 @@
         <v>2279</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5772</v>
+        <v>5498</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003589619874725654</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0008177451762301546</v>
+        <v>0.0008204878402756605</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009090541011413098</v>
+        <v>0.008658887530447535</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>10741</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5555</v>
+        <v>5849</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19000</v>
+        <v>18021</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03368647635313831</v>
+        <v>0.03368647635313832</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0174224294566502</v>
+        <v>0.0183447926005815</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0595911247356397</v>
+        <v>0.05652084862734469</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -825,19 +825,19 @@
         <v>5457</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2762</v>
+        <v>2661</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9609</v>
+        <v>9943</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01726676537317806</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008737775972010347</v>
+        <v>0.008418994049536509</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03040199515454201</v>
+        <v>0.03146035625883173</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -846,19 +846,19 @@
         <v>16198</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9918</v>
+        <v>9996</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24347</v>
+        <v>25084</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02551262852300862</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01562058389511773</v>
+        <v>0.01574369552407497</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03834701507737415</v>
+        <v>0.03950757572071886</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>308104</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>299845</v>
+        <v>300824</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>313290</v>
+        <v>312996</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9663135236468617</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9404088752643606</v>
+        <v>0.9434791513726557</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9825775705433498</v>
+        <v>0.9816552073994186</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>524</v>
@@ -896,19 +896,19 @@
         <v>308325</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>303660</v>
+        <v>303164</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>311619</v>
+        <v>311541</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9755223686924628</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9607643205123785</v>
+        <v>0.9591935494718258</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9859461680481457</v>
+        <v>0.9856987144735587</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>844</v>
@@ -917,19 +917,19 @@
         <v>616429</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>607262</v>
+        <v>607138</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>622403</v>
+        <v>622863</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9708977516022658</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9564598136887302</v>
+        <v>0.9562637662167163</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9803065906909834</v>
+        <v>0.9810314457026864</v>
       </c>
     </row>
     <row r="7">
@@ -1021,19 +1021,19 @@
         <v>6652</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1449</v>
+        <v>1457</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20997</v>
+        <v>19623</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01253655127662737</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002731411512140633</v>
+        <v>0.00274522373412792</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03956794608907348</v>
+        <v>0.03697864085838181</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -1042,19 +1042,19 @@
         <v>7877</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4181</v>
+        <v>4259</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13662</v>
+        <v>14248</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01444822184453036</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007669705577017608</v>
+        <v>0.007812775645920556</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02505910842966309</v>
+        <v>0.02613389650889561</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -1063,19 +1063,19 @@
         <v>14530</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8079</v>
+        <v>7725</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27923</v>
+        <v>27836</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01350531057455717</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007509612208514043</v>
+        <v>0.007180428479817671</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02595487639617816</v>
+        <v>0.02587407951249968</v>
       </c>
     </row>
     <row r="9">
@@ -1092,19 +1092,19 @@
         <v>56235</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>39998</v>
+        <v>38918</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>79094</v>
+        <v>75684</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1059735333545199</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07537500564704284</v>
+        <v>0.07334113601608004</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.149052205827903</v>
+        <v>0.142626651506415</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>55</v>
@@ -1113,19 +1113,19 @@
         <v>42706</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>31997</v>
+        <v>31982</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>54862</v>
+        <v>55497</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.07833233294706481</v>
+        <v>0.07833233294706479</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05868831932388505</v>
+        <v>0.05866145898858936</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1006278641063029</v>
+        <v>0.1017936828725357</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>91</v>
@@ -1134,19 +1134,19 @@
         <v>98941</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>79523</v>
+        <v>79326</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>122956</v>
+        <v>125940</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0919660624281684</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07391660301699046</v>
+        <v>0.0737342050632693</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1142880854387571</v>
+        <v>0.1170615997566021</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>467760</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>441004</v>
+        <v>447524</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>484533</v>
+        <v>486353</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8814899153688528</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8310678627536336</v>
+        <v>0.8433549747452352</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.913097802967124</v>
+        <v>0.9165281629899146</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>649</v>
@@ -1184,19 +1184,19 @@
         <v>494611</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>480695</v>
+        <v>481490</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>506012</v>
+        <v>506137</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9072194452084049</v>
+        <v>0.9072194452084048</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8816960419532767</v>
+        <v>0.8831528094428615</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9281318702194324</v>
+        <v>0.9283618349717524</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>992</v>
@@ -1205,19 +1205,19 @@
         <v>962371</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>938216</v>
+        <v>935229</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>985038</v>
+        <v>984210</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8945286269972744</v>
+        <v>0.8945286269972745</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8720767721179775</v>
+        <v>0.869300419779697</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9155981538419306</v>
+        <v>0.9148286083240119</v>
       </c>
     </row>
     <row r="11">
@@ -1309,19 +1309,19 @@
         <v>8461</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3826</v>
+        <v>3621</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17097</v>
+        <v>16101</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02685633006202999</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01214526671660308</v>
+        <v>0.01149241873332241</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05426567739902668</v>
+        <v>0.05110502749974212</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1330,19 +1330,19 @@
         <v>4918</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2323</v>
+        <v>2245</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10158</v>
+        <v>9942</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01380115155893345</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006518583912036955</v>
+        <v>0.00629842957469454</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02850333079340259</v>
+        <v>0.0278958455252202</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -1351,19 +1351,19 @@
         <v>13380</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7278</v>
+        <v>7485</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22332</v>
+        <v>22877</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01992701686649091</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01083996878979517</v>
+        <v>0.01114814210146152</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03325933617687299</v>
+        <v>0.03407085502880584</v>
       </c>
     </row>
     <row r="13">
@@ -1380,19 +1380,19 @@
         <v>20209</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13167</v>
+        <v>13316</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31132</v>
+        <v>30207</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06414242355078911</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0417912523552716</v>
+        <v>0.04226518956364882</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09881198388555926</v>
+        <v>0.09587645256765047</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -1401,19 +1401,19 @@
         <v>23212</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15693</v>
+        <v>16039</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32394</v>
+        <v>31809</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06513201013968338</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04403317231079329</v>
+        <v>0.04500592139496166</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09089586933801043</v>
+        <v>0.08925646645353036</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -1422,19 +1422,19 @@
         <v>43421</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33427</v>
+        <v>32219</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57243</v>
+        <v>55708</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06466766764507147</v>
+        <v>0.06466766764507148</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04978323616840585</v>
+        <v>0.04798481636487651</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08525421758573977</v>
+        <v>0.08296715089237092</v>
       </c>
     </row>
     <row r="14">
@@ -1451,19 +1451,19 @@
         <v>286389</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>274635</v>
+        <v>274003</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>295396</v>
+        <v>295200</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9090012463871809</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8716929709801616</v>
+        <v>0.869688141407562</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9375894907858077</v>
+        <v>0.9369686554421656</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>495</v>
@@ -1472,19 +1472,19 @@
         <v>328251</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>318726</v>
+        <v>318715</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>336215</v>
+        <v>336253</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9210668383013831</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8943414278579788</v>
+        <v>0.8943101643428026</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9434153572842543</v>
+        <v>0.9435206288210047</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>824</v>
@@ -1493,19 +1493,19 @@
         <v>614641</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>598540</v>
+        <v>600291</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>626648</v>
+        <v>626842</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9154053154884377</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8914266116143647</v>
+        <v>0.8940335439051245</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9332875437796445</v>
+        <v>0.9335770820545852</v>
       </c>
     </row>
     <row r="15">
@@ -1597,19 +1597,19 @@
         <v>5546</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>811</v>
+        <v>765</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14871</v>
+        <v>16992</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01486311201595377</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002172233950563099</v>
+        <v>0.002049374264357392</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03985428971435681</v>
+        <v>0.04553797233295454</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1618,19 +1618,19 @@
         <v>5967</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1937</v>
+        <v>2136</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13866</v>
+        <v>14017</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01419717064236284</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004608097890623233</v>
+        <v>0.005082145173208793</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03298927516845587</v>
+        <v>0.0333488505740594</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1639,19 +1639,19 @@
         <v>11513</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5212</v>
+        <v>4804</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24038</v>
+        <v>23890</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.01451034974808058</v>
+        <v>0.01451034974808057</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006569070745276678</v>
+        <v>0.006054397334564329</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03029587176439276</v>
+        <v>0.03010852597570551</v>
       </c>
     </row>
     <row r="17">
@@ -1668,19 +1668,19 @@
         <v>26250</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14662</v>
+        <v>16288</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41778</v>
+        <v>43491</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07034712286753711</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0392936154922553</v>
+        <v>0.04364968329735354</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1119631689896137</v>
+        <v>0.1165525843540818</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -1689,19 +1689,19 @@
         <v>27894</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17812</v>
+        <v>18241</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>42242</v>
+        <v>43454</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.06636532697686809</v>
+        <v>0.06636532697686807</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0423774968239284</v>
+        <v>0.04339944347866355</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1005028225463926</v>
+        <v>0.1033860466109737</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>54</v>
@@ -1710,19 +1710,19 @@
         <v>54144</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39906</v>
+        <v>39887</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>75376</v>
+        <v>75813</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.0682378871235159</v>
+        <v>0.06823788712351589</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05029453735256713</v>
+        <v>0.05026966418507411</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0949979217554371</v>
+        <v>0.09554875972561042</v>
       </c>
     </row>
     <row r="18">
@@ -1739,19 +1739,19 @@
         <v>341349</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>325449</v>
+        <v>324043</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>353544</v>
+        <v>353658</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9147897651165091</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8721779667146144</v>
+        <v>0.8684112661547591</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9474704720983462</v>
+        <v>0.9477764614687176</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>561</v>
@@ -1760,19 +1760,19 @@
         <v>386447</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>372084</v>
+        <v>370409</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>397506</v>
+        <v>397488</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.919437502380769</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8852643246504651</v>
+        <v>0.881279410887665</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9457485542482016</v>
+        <v>0.9457073770558743</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>826</v>
@@ -1781,19 +1781,19 @@
         <v>727796</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>703556</v>
+        <v>704961</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>744936</v>
+        <v>743458</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9172517631284037</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8867018667211157</v>
+        <v>0.8884719214232321</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.938853822165153</v>
+        <v>0.9369900919471355</v>
       </c>
     </row>
     <row r="19">
@@ -1885,19 +1885,19 @@
         <v>2758</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7647</v>
+        <v>7330</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01341209416198791</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003614352088428946</v>
+        <v>0.003567555206898535</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03718083914270642</v>
+        <v>0.03563959374310121</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1906,19 +1906,19 @@
         <v>2689</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5552</v>
+        <v>5679</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01174539629909065</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00473969768050047</v>
+        <v>0.004752625307042453</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02425188922696617</v>
+        <v>0.02480731240260661</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -1927,19 +1927,19 @@
         <v>5447</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2479</v>
+        <v>2398</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11090</v>
+        <v>10815</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01253415585177139</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005704871995041384</v>
+        <v>0.005518362439019825</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02551848085386215</v>
+        <v>0.02488695999939792</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>2481</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>778</v>
+        <v>754</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7541</v>
+        <v>6766</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01206094876241142</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.003781199106345101</v>
+        <v>0.003667895609591728</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03666539305044401</v>
+        <v>0.03289725646676148</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -1977,19 +1977,19 @@
         <v>7949</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4217</v>
+        <v>4075</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15329</v>
+        <v>15136</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03472586791903617</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01842185272256346</v>
+        <v>0.01780285548894029</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06696389733387537</v>
+        <v>0.06611835676746386</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
@@ -1998,19 +1998,19 @@
         <v>10430</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6028</v>
+        <v>5782</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>18879</v>
+        <v>19026</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02399976579009472</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01387157926799498</v>
+        <v>0.0133043205084272</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04344167051679348</v>
+        <v>0.04377969070591227</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>200426</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>194333</v>
+        <v>194936</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>203667</v>
+        <v>203851</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9745269570756007</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.944898456519437</v>
+        <v>0.9478337215033885</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9902862435548698</v>
+        <v>0.9911774306108125</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>476</v>
@@ -2048,19 +2048,19 @@
         <v>218280</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>210201</v>
+        <v>211324</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>222342</v>
+        <v>222567</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9535287357818731</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9182383331202578</v>
+        <v>0.9231442055101445</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9712735523584476</v>
+        <v>0.9722544900843983</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>749</v>
@@ -2069,19 +2069,19 @@
         <v>418705</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>410136</v>
+        <v>409655</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>424132</v>
+        <v>424731</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9634660783581339</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9437471053560538</v>
+        <v>0.942641136803176</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.975953208867856</v>
+        <v>0.9773331615375961</v>
       </c>
     </row>
     <row r="23">
@@ -2173,19 +2173,19 @@
         <v>8448</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4268</v>
+        <v>4416</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14693</v>
+        <v>14655</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.03120673498417247</v>
+        <v>0.03120673498417246</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01576790765593339</v>
+        <v>0.01631263886145687</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05427619743055971</v>
+        <v>0.0541357054791177</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -2194,19 +2194,19 @@
         <v>6837</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3009</v>
+        <v>3344</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12723</v>
+        <v>12989</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.02592353985722656</v>
+        <v>0.02592353985722655</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01140831787170248</v>
+        <v>0.01267796864864732</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04823862654166407</v>
+        <v>0.04924611182413689</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -2215,19 +2215,19 @@
         <v>15285</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9428</v>
+        <v>9116</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23310</v>
+        <v>23362</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02859952140116282</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0176399925953994</v>
+        <v>0.01705575349783389</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04361405563393339</v>
+        <v>0.04371140475067582</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>25022</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17641</v>
+        <v>17818</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35318</v>
+        <v>34104</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.09243026045753164</v>
+        <v>0.09243026045753162</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06516715385422715</v>
+        <v>0.06581985024359852</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1304644508562779</v>
+        <v>0.1259813753099616</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -2265,19 +2265,19 @@
         <v>15880</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10841</v>
+        <v>11206</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22150</v>
+        <v>22893</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.06020828438633256</v>
+        <v>0.06020828438633253</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04110280385115456</v>
+        <v>0.04248664412284407</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08398146624189122</v>
+        <v>0.08679913359213362</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -2286,19 +2286,19 @@
         <v>40901</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>31114</v>
+        <v>32506</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>51140</v>
+        <v>52688</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0765289788153361</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05821620055886494</v>
+        <v>0.06082091518164542</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0956856579129086</v>
+        <v>0.09858144047457483</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>237238</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>225387</v>
+        <v>227300</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>245544</v>
+        <v>245839</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.876363004558296</v>
+        <v>0.8763630045582959</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8325854985549928</v>
+        <v>0.8396516371017125</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9070476997466367</v>
+        <v>0.9081359251551744</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>417</v>
@@ -2336,19 +2336,19 @@
         <v>241033</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>233249</v>
+        <v>232729</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>247653</v>
+        <v>247033</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.913868175756441</v>
+        <v>0.9138681757564409</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8843564487133978</v>
+        <v>0.8823835805244125</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9389697126598168</v>
+        <v>0.9366170014681324</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>743</v>
@@ -2357,19 +2357,19 @@
         <v>478270</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>466581</v>
+        <v>464774</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>489524</v>
+        <v>489936</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8948714997835011</v>
+        <v>0.894871499783501</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.872999439835091</v>
+        <v>0.8696183036297063</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9159280511988762</v>
+        <v>0.9166977036548385</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>10969</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5717</v>
+        <v>5568</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18705</v>
+        <v>18753</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.01526673221207168</v>
+        <v>0.01526673221207167</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007956737497424562</v>
+        <v>0.007749431072701572</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02603358010112364</v>
+        <v>0.0261005513259092</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>25</v>
@@ -2482,19 +2482,19 @@
         <v>19163</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12882</v>
+        <v>12534</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>27519</v>
+        <v>28290</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02484409665752178</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01670204556140093</v>
+        <v>0.01624980160604465</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03567781077809378</v>
+        <v>0.0366782392543613</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>36</v>
@@ -2503,19 +2503,19 @@
         <v>30132</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>21337</v>
+        <v>21432</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>40618</v>
+        <v>40780</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.02022513207280556</v>
+        <v>0.02022513207280557</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01432153960524067</v>
+        <v>0.01438545613879523</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02726347570509597</v>
+        <v>0.02737210074227461</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>29075</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19842</v>
+        <v>19230</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>42607</v>
+        <v>42566</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.040465765831585</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02761593239113454</v>
+        <v>0.0267636497283786</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05929867652541916</v>
+        <v>0.05924258181576292</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>75</v>
@@ -2553,19 +2553,19 @@
         <v>65812</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>50726</v>
+        <v>51944</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>83394</v>
+        <v>82278</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08532460851896474</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06576626585094864</v>
+        <v>0.06734485399347441</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1081203835177011</v>
+        <v>0.1066733645322419</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>101</v>
@@ -2574,19 +2574,19 @@
         <v>94887</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>76536</v>
+        <v>77548</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>114669</v>
+        <v>115072</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.06369011743694294</v>
+        <v>0.06369011743694296</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05137281315444767</v>
+        <v>0.0520518485077574</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07696839075787675</v>
+        <v>0.07723902684895352</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>678465</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>662929</v>
+        <v>664198</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>690104</v>
+        <v>690699</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9442675019563436</v>
+        <v>0.9442675019563435</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9226453701613065</v>
+        <v>0.9244114891432212</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9604664702014289</v>
+        <v>0.9612946457968219</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>859</v>
@@ -2624,19 +2624,19 @@
         <v>686337</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>667687</v>
+        <v>667998</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>702201</v>
+        <v>701841</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8898312948235134</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8656525634131754</v>
+        <v>0.8660559013021285</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9103999345086725</v>
+        <v>0.909932701126786</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1420</v>
@@ -2645,19 +2645,19 @@
         <v>1364801</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1343725</v>
+        <v>1341618</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1384635</v>
+        <v>1383656</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9160847504902514</v>
+        <v>0.9160847504902516</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9019376232296138</v>
+        <v>0.9005238604086246</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9293975827932094</v>
+        <v>0.9287404177437825</v>
       </c>
     </row>
     <row r="31">
@@ -2749,19 +2749,19 @@
         <v>18119</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11385</v>
+        <v>10818</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>29310</v>
+        <v>29311</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02270357449526479</v>
+        <v>0.02270357449526478</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01426596178689407</v>
+        <v>0.01355570767608594</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03672659662013817</v>
+        <v>0.03672690858088874</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -2770,19 +2770,19 @@
         <v>8558</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4518</v>
+        <v>4827</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14274</v>
+        <v>14799</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01029470532602209</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005434572417153386</v>
+        <v>0.005806487135614615</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01717030752533056</v>
+        <v>0.01780186763490338</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>28</v>
@@ -2791,19 +2791,19 @@
         <v>26677</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>17477</v>
+        <v>16870</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>39239</v>
+        <v>38744</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01637249433519146</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01072580268638796</v>
+        <v>0.01035344599139764</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0240817061900185</v>
+        <v>0.02377809989426191</v>
       </c>
     </row>
     <row r="33">
@@ -2820,19 +2820,19 @@
         <v>122208</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>101788</v>
+        <v>102925</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>145025</v>
+        <v>143210</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1531286810510843</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1275426562769033</v>
+        <v>0.1289669457851037</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1817197754646561</v>
+        <v>0.1794446483695207</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>183</v>
@@ -2841,19 +2841,19 @@
         <v>138995</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>121437</v>
+        <v>120665</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>161268</v>
+        <v>160289</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1671953854252569</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1460755383706785</v>
+        <v>0.1451462195585523</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1939872898379657</v>
+        <v>0.1928103107341656</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>309</v>
@@ -2862,19 +2862,19 @@
         <v>261202</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>232141</v>
+        <v>233879</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>289319</v>
+        <v>290050</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1603055987674613</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.142470232023946</v>
+        <v>0.1435367774177061</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1775612128657117</v>
+        <v>0.1780096937760041</v>
       </c>
     </row>
     <row r="34">
@@ -2891,19 +2891,19 @@
         <v>657745</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>633320</v>
+        <v>637306</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>679950</v>
+        <v>680605</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.8241677444536507</v>
+        <v>0.8241677444536509</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7935629618231856</v>
+        <v>0.7985568697238632</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8519908633031474</v>
+        <v>0.8528119025667412</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>867</v>
@@ -2912,19 +2912,19 @@
         <v>683778</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>660496</v>
+        <v>663173</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>702263</v>
+        <v>702498</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.822509909248721</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7945036767750074</v>
+        <v>0.7977244024711119</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8447454842346853</v>
+        <v>0.8450275368662965</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1487</v>
@@ -2933,19 +2933,19 @@
         <v>1341523</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1310519</v>
+        <v>1310999</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1372191</v>
+        <v>1369958</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8233219068973473</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8042938829754658</v>
+        <v>0.8045888291827817</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8421432982956372</v>
+        <v>0.8407727929027398</v>
       </c>
     </row>
     <row r="35">
@@ -3037,19 +3037,19 @@
         <v>60955</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>45866</v>
+        <v>45673</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>83357</v>
+        <v>81873</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.01726440501932457</v>
+        <v>0.01726440501932456</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01299091914327382</v>
+        <v>0.01293626256541656</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02360939951979433</v>
+        <v>0.02318931540326943</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>82</v>
@@ -3058,19 +3058,19 @@
         <v>58289</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>46634</v>
+        <v>46682</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>72996</v>
+        <v>73807</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01561337894427394</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0124915001687832</v>
+        <v>0.01250432597714341</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01955287897377378</v>
+        <v>0.01977014992340086</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>137</v>
@@ -3079,19 +3079,19 @@
         <v>119243</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>98823</v>
+        <v>98627</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>143791</v>
+        <v>143883</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01641586691749811</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01360470488172762</v>
+        <v>0.01357771474745226</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01979523209728891</v>
+        <v>0.01980793993574256</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>292218</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>258135</v>
+        <v>258065</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>328721</v>
+        <v>331213</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.08276618926815972</v>
+        <v>0.08276618926815969</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07311263640402357</v>
+        <v>0.07309277811098924</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09310508898760923</v>
+        <v>0.09381090516156353</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>432</v>
@@ -3129,19 +3129,19 @@
         <v>327905</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>297673</v>
+        <v>296572</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>361922</v>
+        <v>361349</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.08783362954097965</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07973542927345624</v>
+        <v>0.07944052277741759</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09694557386410371</v>
+        <v>0.09679205928751311</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>714</v>
@@ -3150,19 +3150,19 @@
         <v>620124</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>573846</v>
+        <v>574728</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>672756</v>
+        <v>671680</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08537057948052244</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0789996552885666</v>
+        <v>0.07912109140888267</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09261637105615719</v>
+        <v>0.09246821835929973</v>
       </c>
     </row>
     <row r="38">
@@ -3179,19 +3179,19 @@
         <v>3177477</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3137481</v>
+        <v>3135008</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3214495</v>
+        <v>3213528</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.8999694057125157</v>
+        <v>0.8999694057125156</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8886410904394354</v>
+        <v>0.8879406067194674</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9104540730135547</v>
+        <v>0.9101803352116221</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>4848</v>
@@ -3200,19 +3200,19 @@
         <v>3347059</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3308501</v>
+        <v>3310438</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3378779</v>
+        <v>3380552</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8965529915147463</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8862246282284623</v>
+        <v>0.8867434498100671</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9050495176834989</v>
+        <v>0.9055244582499949</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>7885</v>
@@ -3221,19 +3221,19 @@
         <v>6524536</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6468329</v>
+        <v>6470164</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6581193</v>
+        <v>6576945</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8982135536019793</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8904756847709205</v>
+        <v>0.8907283422283002</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9060133426844821</v>
+        <v>0.9054285826814701</v>
       </c>
     </row>
     <row r="39">
